--- a/labelled_csv_files/labelled_M_0098_10y6m_1_fa.xlsx
+++ b/labelled_csv_files/labelled_M_0098_10y6m_1_fa.xlsx
@@ -1,24 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10" conformance="strict">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
+<workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2" conformance="strict">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10113"/>
   <workbookPr dateCompatibility="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shababayub/go/src/github.com/s4ayub/fydp/labelled_csv_files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rahul/Documents/fydp/labelled_csv_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{9CD62616-C7AC-6E4D-AB8E-2BA6E16C71E7}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{AE590F68-AE6A-BC44-8C90-83FDAADE87CE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="460" windowWidth="10000" windowHeight="15000"/>
+    <workbookView xWindow="80" yWindow="460" windowWidth="10000" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="labelled_M_0098_10y6m_1_fa" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -1155,7 +1163,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1989,11 +1997,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F244"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A219" workbookViewId="0">
-      <selection activeCell="F236" sqref="F236"/>
+    <sheetView tabSelected="1" topLeftCell="A227" zoomScale="143" workbookViewId="0">
+      <selection activeCell="E236" sqref="E236"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6183,6 +6191,7 @@
         <v>318</v>
       </c>
       <c r="C210">
+        <f t="shared" ref="C210:C222" si="0">D209</f>
         <v>100.32</v>
       </c>
       <c r="D210">
@@ -6203,6 +6212,7 @@
         <v>319</v>
       </c>
       <c r="C211">
+        <f t="shared" si="0"/>
         <v>100.375</v>
       </c>
       <c r="D211">
@@ -6223,10 +6233,11 @@
         <v>321</v>
       </c>
       <c r="C212">
+        <f t="shared" si="0"/>
         <v>100.755</v>
       </c>
       <c r="D212">
-        <v>100.755</v>
+        <v>102.755</v>
       </c>
       <c r="E212" t="s">
         <v>322</v>
@@ -6243,10 +6254,11 @@
         <v>323</v>
       </c>
       <c r="C213">
-        <v>100.755</v>
+        <f>D212</f>
+        <v>102.755</v>
       </c>
       <c r="D213">
-        <v>100.80500000000001</v>
+        <v>103.80500000000001</v>
       </c>
       <c r="E213" t="s">
         <v>324</v>
@@ -6263,10 +6275,11 @@
         <v>325</v>
       </c>
       <c r="C214">
-        <v>100.80500000000001</v>
+        <f t="shared" si="0"/>
+        <v>103.80500000000001</v>
       </c>
       <c r="D214">
-        <v>100.995</v>
+        <v>103.995</v>
       </c>
       <c r="E214" t="s">
         <v>326</v>
@@ -6283,10 +6296,11 @@
         <v>327</v>
       </c>
       <c r="C215">
-        <v>100.995</v>
+        <f t="shared" si="0"/>
+        <v>103.995</v>
       </c>
       <c r="D215">
-        <v>101.005</v>
+        <v>104.005</v>
       </c>
       <c r="E215" t="s">
         <v>328</v>
@@ -6303,10 +6317,11 @@
         <v>329</v>
       </c>
       <c r="C216">
-        <v>101.005</v>
+        <f t="shared" si="0"/>
+        <v>104.005</v>
       </c>
       <c r="D216">
-        <v>101.28</v>
+        <v>104.28</v>
       </c>
       <c r="E216" t="s">
         <v>330</v>
@@ -6323,10 +6338,11 @@
         <v>331</v>
       </c>
       <c r="C217">
-        <v>101.28</v>
+        <f t="shared" si="0"/>
+        <v>104.28</v>
       </c>
       <c r="D217">
-        <v>101.75</v>
+        <v>104.75</v>
       </c>
       <c r="E217" t="s">
         <v>332</v>
@@ -6343,10 +6359,11 @@
         <v>333</v>
       </c>
       <c r="C218">
-        <v>101.75</v>
+        <f t="shared" si="0"/>
+        <v>104.75</v>
       </c>
       <c r="D218">
-        <v>101.995</v>
+        <v>104.995</v>
       </c>
       <c r="E218" t="s">
         <v>334</v>
@@ -6363,10 +6380,11 @@
         <v>335</v>
       </c>
       <c r="C219">
-        <v>101.995</v>
+        <f t="shared" si="0"/>
+        <v>104.995</v>
       </c>
       <c r="D219">
-        <v>103.54</v>
+        <v>105.54</v>
       </c>
       <c r="E219" t="s">
         <v>336</v>
@@ -6383,10 +6401,11 @@
         <v>337</v>
       </c>
       <c r="C220">
-        <v>103.54</v>
+        <f t="shared" si="0"/>
+        <v>105.54</v>
       </c>
       <c r="D220">
-        <v>103.77500000000001</v>
+        <v>105.77500000000001</v>
       </c>
       <c r="E220" t="s">
         <v>19</v>
@@ -6403,10 +6422,11 @@
         <v>338</v>
       </c>
       <c r="C221">
-        <v>103.77500000000001</v>
+        <f t="shared" si="0"/>
+        <v>105.77500000000001</v>
       </c>
       <c r="D221">
-        <v>104.04</v>
+        <v>105.84</v>
       </c>
       <c r="E221" t="s">
         <v>339</v>
@@ -6423,10 +6443,11 @@
         <v>340</v>
       </c>
       <c r="C222">
-        <v>104.04</v>
+        <f t="shared" si="0"/>
+        <v>105.84</v>
       </c>
       <c r="D222">
-        <v>104.64</v>
+        <v>105.64</v>
       </c>
       <c r="E222" t="s">
         <v>152</v>
@@ -6443,10 +6464,11 @@
         <v>341</v>
       </c>
       <c r="C223">
-        <v>104.64</v>
+        <f t="shared" ref="C223:C225" si="1">D222</f>
+        <v>105.64</v>
       </c>
       <c r="D223">
-        <v>104.77</v>
+        <v>105.77</v>
       </c>
       <c r="E223" t="s">
         <v>19</v>
@@ -6463,10 +6485,11 @@
         <v>342</v>
       </c>
       <c r="C224">
-        <v>104.77</v>
+        <f t="shared" si="1"/>
+        <v>105.77</v>
       </c>
       <c r="D224">
-        <v>105.48</v>
+        <v>106.48</v>
       </c>
       <c r="E224" t="s">
         <v>343</v>
@@ -6483,7 +6506,8 @@
         <v>344</v>
       </c>
       <c r="C225">
-        <v>105.48</v>
+        <f t="shared" si="1"/>
+        <v>106.48</v>
       </c>
       <c r="D225">
         <v>107.005</v>
@@ -6586,7 +6610,7 @@
         <v>110.46</v>
       </c>
       <c r="D230">
-        <v>117.28</v>
+        <v>112.28</v>
       </c>
       <c r="E230" t="s">
         <v>61</v>
